--- a/TestData/OPR344_ExportManifest_TestData.xlsx
+++ b/TestData/OPR344_ExportManifest_TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-asaha\Automation 2024\Excel\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-asaha\Automation 2024\Excel_6thJan\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB9D8BA-D9D7-45CE-A7BF-A875892F296D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD2CDDB-2B6A-4850-A5CE-C92B8CEDACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D08917F3-99AD-45FF-9344-C306FD5F654B}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10180" xr2:uid="{D08917F3-99AD-45FF-9344-C306FD5F654B}"/>
   </bookViews>
   <sheets>
     <sheet name="OPR344_EXP_00001" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>AgentCode</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>FlightNumber</t>
+  </si>
+  <si>
+    <t>Tags</t>
   </si>
 </sst>
 </file>
@@ -503,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B131BF31-643E-4381-8A09-A9F51B3B824A}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -515,7 +518,7 @@
     <col min="17" max="17" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,8 +573,11 @@
       <c r="R1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -624,7 +630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -677,7 +683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>11377</v>
       </c>

--- a/TestData/OPR344_ExportManifest_TestData.xlsx
+++ b/TestData/OPR344_ExportManifest_TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-asaha\Automation 2024\Excel_6thJan\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-ssaha1\Desktop\ICargo KT\NewiCargoExternal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD2CDDB-2B6A-4850-A5CE-C92B8CEDACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF0AC65-38A0-4B65-B4CF-BA52AE60B2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10180" xr2:uid="{D08917F3-99AD-45FF-9344-C306FD5F654B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D08917F3-99AD-45FF-9344-C306FD5F654B}"/>
   </bookViews>
   <sheets>
     <sheet name="OPR344_EXP_00001" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="84">
   <si>
     <t>AgentCode</t>
   </si>
   <si>
-    <t xml:space="preserve">UnknownShipperCode </t>
-  </si>
-  <si>
     <t>ConsigneeCode</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>JFK</t>
   </si>
   <si>
-    <t xml:space="preserve">GENERAL </t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -122,12 +116,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">PRIORITY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CART </t>
-  </si>
-  <si>
     <t>LyingList</t>
   </si>
   <si>
@@ -135,6 +123,171 @@
   </si>
   <si>
     <t>Tags</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>ShipperCode</t>
+  </si>
+  <si>
+    <t>UnknownShipperCode</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00002</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00001</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00003</t>
+  </si>
+  <si>
+    <t>LAX</t>
+  </si>
+  <si>
+    <t>ANC</t>
+  </si>
+  <si>
+    <t>HNL</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>GOLDSTREAK</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00004</t>
+  </si>
+  <si>
+    <t>SplitPieces</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00005</t>
+  </si>
+  <si>
+    <t>NewFlightNumber</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00006</t>
+  </si>
+  <si>
+    <t>UNID</t>
+  </si>
+  <si>
+    <t>ProperShipmentName</t>
+  </si>
+  <si>
+    <t>PackingInstruction</t>
+  </si>
+  <si>
+    <t>NetQtyPerPkg</t>
+  </si>
+  <si>
+    <t>ReportableQnty</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>DGR</t>
+  </si>
+  <si>
+    <t>UN8000</t>
+  </si>
+  <si>
+    <t>UN1845</t>
+  </si>
+  <si>
+    <t>UN3110</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>CREDIT</t>
+  </si>
+  <si>
+    <t>Consumer commodity</t>
+  </si>
+  <si>
+    <t>Dry ice</t>
+  </si>
+  <si>
+    <t>Organic peroxide type F, solid *</t>
+  </si>
+  <si>
+    <t>Y963</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00010</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00011</t>
+  </si>
+  <si>
+    <t>OME</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00012</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00013</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00014</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00015</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00017</t>
+  </si>
+  <si>
+    <t>DGR,CAO</t>
+  </si>
+  <si>
+    <t>UN3480</t>
+  </si>
+  <si>
+    <t>Lithium ion batteries</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00018</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00020</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>HandlingCode</t>
+  </si>
+  <si>
+    <t>CAO</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00021</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00022</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00025</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00026</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00027</t>
   </si>
 </sst>
 </file>
@@ -506,240 +659,1774 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B131BF31-643E-4381-8A09-A9F51B3B824A}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="6.54296875" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" customWidth="1"/>
+    <col min="10" max="10" width="17.7265625" customWidth="1"/>
+    <col min="11" max="11" width="15.90625" customWidth="1"/>
+    <col min="12" max="12" width="5.36328125" customWidth="1"/>
+    <col min="13" max="13" width="7.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" customWidth="1"/>
+    <col min="15" max="15" width="13.90625" customWidth="1"/>
+    <col min="16" max="16" width="7.7265625" customWidth="1"/>
+    <col min="17" max="17" width="15.7265625" customWidth="1"/>
+    <col min="18" max="18" width="12.08984375" customWidth="1"/>
+    <col min="19" max="19" width="15.453125" customWidth="1"/>
+    <col min="20" max="20" width="10.08984375" customWidth="1"/>
+    <col min="21" max="21" width="5.7265625" customWidth="1"/>
+    <col min="22" max="22" width="25.81640625" customWidth="1"/>
+    <col min="23" max="23" width="15.81640625" customWidth="1"/>
+    <col min="24" max="24" width="11.7265625" customWidth="1"/>
+    <col min="25" max="25" width="13.7265625" customWidth="1"/>
+    <col min="26" max="26" width="6.7265625" customWidth="1"/>
+    <col min="27" max="27" width="11.7265625" customWidth="1"/>
+    <col min="28" max="28" width="7.1796875" customWidth="1"/>
+    <col min="29" max="29" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2">
+        <v>10763</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="C2">
-        <v>10763</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
       <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2">
         <v>13</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>775</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3">
+        <v>10763</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="C3">
-        <v>10763</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
       <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3">
         <v>2199</v>
       </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
       <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3">
         <v>8</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>360</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
       </c>
       <c r="N3" t="s">
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>11377</v>
+      </c>
+      <c r="B4">
+        <v>11377</v>
+      </c>
+      <c r="D4">
+        <v>11377</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>2199</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4">
         <v>26</v>
       </c>
-      <c r="R3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>11377</v>
-      </c>
-      <c r="B4">
-        <v>11377</v>
-      </c>
-      <c r="C4">
-        <v>11377</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
-        <v>2199</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4">
-        <v>26</v>
-      </c>
-      <c r="L4">
+      <c r="M4">
         <v>123</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
       </c>
       <c r="N4" t="s">
         <v>22</v>
       </c>
       <c r="O4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4">
+        <v>16</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>11377</v>
+      </c>
+      <c r="B5">
+        <v>11377</v>
+      </c>
+      <c r="D5">
+        <v>11377</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="P4" t="s">
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>13</v>
+      </c>
+      <c r="M5">
+        <v>775</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>11377</v>
+      </c>
+      <c r="B6">
+        <v>11377</v>
+      </c>
+      <c r="D6">
+        <v>11377</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="Q4">
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>2199</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>360</v>
+      </c>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>11377</v>
+      </c>
+      <c r="B7">
+        <v>11377</v>
+      </c>
+      <c r="D7">
+        <v>11377</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>59</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>11377</v>
+      </c>
+      <c r="B8">
+        <v>11377</v>
+      </c>
+      <c r="D8">
+        <v>11377</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="str">
+        <f>"0"&amp;316</f>
+        <v>0316</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>234</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>11377</v>
+      </c>
+      <c r="B9">
+        <v>11377</v>
+      </c>
+      <c r="D9">
+        <v>11377</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>2199</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>189</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>11377</v>
+      </c>
+      <c r="B10">
+        <v>11377</v>
+      </c>
+      <c r="D10">
+        <v>11377</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="str">
+        <f>"0"&amp;316</f>
+        <v>0316</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>59</v>
+      </c>
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11377</v>
+      </c>
+      <c r="B11">
+        <v>11377</v>
+      </c>
+      <c r="D11">
+        <v>11377</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>30</v>
+      </c>
+      <c r="N11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11">
+        <v>8000</v>
+      </c>
+      <c r="V11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W11" t="s">
+        <v>61</v>
+      </c>
+      <c r="X11">
+        <v>0.5</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11377</v>
+      </c>
+      <c r="B12">
+        <v>11377</v>
+      </c>
+      <c r="D12">
+        <v>11377</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>65</v>
+      </c>
+      <c r="N12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12">
+        <v>1845</v>
+      </c>
+      <c r="V12" t="s">
+        <v>59</v>
+      </c>
+      <c r="W12">
+        <v>954</v>
+      </c>
+      <c r="X12">
+        <v>0.5</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11377</v>
+      </c>
+      <c r="B13">
+        <v>11377</v>
+      </c>
+      <c r="D13">
+        <v>11377</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>99</v>
+      </c>
+      <c r="N13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13">
+        <v>3110</v>
+      </c>
+      <c r="V13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W13">
+        <v>570</v>
+      </c>
+      <c r="X13">
+        <v>0.5</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>11377</v>
+      </c>
+      <c r="B14">
+        <v>11377</v>
+      </c>
+      <c r="D14">
+        <v>11377</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>59</v>
+      </c>
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>11377</v>
+      </c>
+      <c r="B15">
+        <v>11377</v>
+      </c>
+      <c r="D15">
+        <v>11377</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>59</v>
+      </c>
+      <c r="N15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>11377</v>
+      </c>
+      <c r="B16">
+        <v>11377</v>
+      </c>
+      <c r="D16">
+        <v>11377</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>2199</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>287</v>
+      </c>
+      <c r="N16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>11377</v>
+      </c>
+      <c r="B17">
+        <v>11377</v>
+      </c>
+      <c r="D17">
+        <v>11377</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>59</v>
+      </c>
+      <c r="N17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17">
+        <v>155</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>11377</v>
+      </c>
+      <c r="B18">
+        <v>11377</v>
+      </c>
+      <c r="D18">
+        <v>11377</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <v>198</v>
+      </c>
+      <c r="N18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>11377</v>
+      </c>
+      <c r="B19">
+        <v>11377</v>
+      </c>
+      <c r="D19">
+        <v>11377</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>59</v>
+      </c>
+      <c r="N19" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>11377</v>
+      </c>
+      <c r="B20">
+        <v>11377</v>
+      </c>
+      <c r="D20">
+        <v>11377</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="str">
+        <f>"0"&amp;316</f>
+        <v>0316</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>59</v>
+      </c>
+      <c r="N20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20">
+        <v>26</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>11377</v>
+      </c>
+      <c r="B21">
+        <v>11377</v>
+      </c>
+      <c r="D21">
+        <v>11377</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>30</v>
+      </c>
+      <c r="N21" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21">
+        <v>155</v>
+      </c>
+      <c r="U21">
+        <v>3480</v>
+      </c>
+      <c r="V21" t="s">
+        <v>73</v>
+      </c>
+      <c r="W21">
+        <v>965</v>
+      </c>
+      <c r="X21">
+        <v>0.5</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="R4" t="s">
-        <v>27</v>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>11377</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>59</v>
+      </c>
+      <c r="N22" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22">
+        <v>155</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>11377</v>
+      </c>
+      <c r="B23">
+        <v>11377</v>
+      </c>
+      <c r="D23">
+        <v>11377</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>30</v>
+      </c>
+      <c r="N23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23">
+        <v>3480</v>
+      </c>
+      <c r="V23" t="s">
+        <v>73</v>
+      </c>
+      <c r="W23">
+        <v>965</v>
+      </c>
+      <c r="X23">
+        <v>0.5</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>11377</v>
+      </c>
+      <c r="B24">
+        <v>11377</v>
+      </c>
+      <c r="D24">
+        <v>11377</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>59</v>
+      </c>
+      <c r="N24" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>11377</v>
+      </c>
+      <c r="B25">
+        <v>11377</v>
+      </c>
+      <c r="D25">
+        <v>11377</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>59</v>
+      </c>
+      <c r="N25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>11377</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>60</v>
+      </c>
+      <c r="N26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26">
+        <v>173</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>11377</v>
+      </c>
+      <c r="B27">
+        <v>11377</v>
+      </c>
+      <c r="D27">
+        <v>11377</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>60</v>
+      </c>
+      <c r="N27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27">
+        <v>173</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>11377</v>
+      </c>
+      <c r="B28">
+        <v>11377</v>
+      </c>
+      <c r="D28">
+        <v>11377</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>60</v>
+      </c>
+      <c r="N28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28">
+        <v>173</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestData/OPR344_ExportManifest_TestData.xlsx
+++ b/TestData/OPR344_ExportManifest_TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-ssaha1\Desktop\ICargo KT\NewiCargoExternal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-asaha\Automation 2024\Excel_6thJan\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF0AC65-38A0-4B65-B4CF-BA52AE60B2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D0EC8F-39B9-4DAF-985B-9DC6C1A20F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D08917F3-99AD-45FF-9344-C306FD5F654B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="84">
   <si>
     <t>AgentCode</t>
   </si>
@@ -659,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B131BF31-643E-4381-8A09-A9F51B3B824A}">
-  <dimension ref="A1:AC28"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1081,10 +1081,10 @@
         <v>11377</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
         <v>40</v>
@@ -1137,358 +1137,325 @@
         <v>11377</v>
       </c>
       <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>59</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>11377</v>
+      </c>
+      <c r="B9">
+        <v>11377</v>
+      </c>
+      <c r="D9">
+        <v>11377</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>2199</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>360</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>11377</v>
+      </c>
+      <c r="B10">
+        <v>11377</v>
+      </c>
+      <c r="D10">
+        <v>11377</v>
+      </c>
+      <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>59</v>
+      </c>
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11377</v>
+      </c>
+      <c r="B11">
+        <v>11377</v>
+      </c>
+      <c r="D11">
+        <v>11377</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
         <v>29</v>
       </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="str">
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="str">
         <f>"0"&amp;316</f>
         <v>0316</v>
       </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8">
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11">
         <v>2</v>
       </c>
-      <c r="M8">
+      <c r="M11">
         <v>234</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N11" t="s">
         <v>22</v>
       </c>
-      <c r="O8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="O11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" t="s">
         <v>24</v>
       </c>
-      <c r="T8">
+      <c r="T11">
         <v>1</v>
       </c>
-      <c r="AB8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="AB11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>11377</v>
-      </c>
-      <c r="B9">
-        <v>11377</v>
-      </c>
-      <c r="D9">
-        <v>11377</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11377</v>
+      </c>
+      <c r="B12">
+        <v>11377</v>
+      </c>
+      <c r="D12">
+        <v>11377</v>
+      </c>
+      <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F12" t="s">
         <v>38</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G12" t="s">
         <v>30</v>
       </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9">
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12">
         <v>2199</v>
       </c>
-      <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9">
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12">
         <v>10</v>
       </c>
-      <c r="M9">
+      <c r="M12">
         <v>189</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N12" t="s">
         <v>22</v>
       </c>
-      <c r="O9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="O12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" t="s">
         <v>24</v>
       </c>
-      <c r="T9">
+      <c r="T12">
         <v>1</v>
       </c>
-      <c r="AB9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC9" t="s">
+      <c r="AB12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>11377</v>
-      </c>
-      <c r="B10">
-        <v>11377</v>
-      </c>
-      <c r="D10">
-        <v>11377</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11377</v>
+      </c>
+      <c r="B13">
+        <v>11377</v>
+      </c>
+      <c r="D13">
+        <v>11377</v>
+      </c>
+      <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F13" t="s">
         <v>19</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G13" t="s">
         <v>29</v>
       </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="str">
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="str">
         <f>"0"&amp;316</f>
         <v>0316</v>
       </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10">
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13">
         <v>2</v>
       </c>
-      <c r="M10">
+      <c r="M13">
         <v>59</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N13" t="s">
         <v>22</v>
       </c>
-      <c r="O10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10">
-        <v>26</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>11377</v>
-      </c>
-      <c r="B11">
-        <v>11377</v>
-      </c>
-      <c r="D11">
-        <v>11377</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>30</v>
-      </c>
-      <c r="N11" t="s">
-        <v>56</v>
-      </c>
-      <c r="O11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>24</v>
-      </c>
-      <c r="U11">
-        <v>8000</v>
-      </c>
-      <c r="V11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X11">
-        <v>0.5</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11377</v>
-      </c>
-      <c r="B12">
-        <v>11377</v>
-      </c>
-      <c r="D12">
-        <v>11377</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <v>65</v>
-      </c>
-      <c r="N12" t="s">
-        <v>56</v>
-      </c>
-      <c r="O12" t="s">
-        <v>57</v>
-      </c>
-      <c r="P12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>24</v>
-      </c>
-      <c r="U12">
-        <v>1845</v>
-      </c>
-      <c r="V12" t="s">
-        <v>59</v>
-      </c>
-      <c r="W12">
-        <v>954</v>
-      </c>
-      <c r="X12">
-        <v>0.5</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>11377</v>
-      </c>
-      <c r="B13">
-        <v>11377</v>
-      </c>
-      <c r="D13">
-        <v>11377</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <v>99</v>
-      </c>
-      <c r="N13" t="s">
-        <v>56</v>
-      </c>
       <c r="O13" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="P13" t="s">
         <v>23</v>
@@ -1496,26 +1463,14 @@
       <c r="Q13" t="s">
         <v>24</v>
       </c>
-      <c r="U13">
-        <v>3110</v>
-      </c>
-      <c r="V13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W13">
-        <v>570</v>
-      </c>
-      <c r="X13">
-        <v>0.5</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>62</v>
+      <c r="S13">
+        <v>26</v>
       </c>
       <c r="AB13" t="s">
         <v>25</v>
       </c>
       <c r="AC13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
@@ -1529,37 +1484,37 @@
         <v>11377</v>
       </c>
       <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
         <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s">
         <v>20</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="N14" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="O14" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="P14" t="s">
         <v>23</v>
@@ -1567,11 +1522,26 @@
       <c r="Q14" t="s">
         <v>24</v>
       </c>
+      <c r="U14">
+        <v>8000</v>
+      </c>
+      <c r="V14" t="s">
+        <v>58</v>
+      </c>
+      <c r="W14" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14">
+        <v>0.5</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>62</v>
+      </c>
       <c r="AB14" t="s">
         <v>25</v>
       </c>
       <c r="AC14" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
@@ -1585,22 +1555,22 @@
         <v>11377</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s">
         <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s">
         <v>20</v>
@@ -1609,13 +1579,13 @@
         <v>2</v>
       </c>
       <c r="M15">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N15" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="O15" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="P15" t="s">
         <v>23</v>
@@ -1623,11 +1593,26 @@
       <c r="Q15" t="s">
         <v>24</v>
       </c>
+      <c r="U15">
+        <v>1845</v>
+      </c>
+      <c r="V15" t="s">
+        <v>59</v>
+      </c>
+      <c r="W15">
+        <v>954</v>
+      </c>
+      <c r="X15">
+        <v>0.5</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>62</v>
+      </c>
       <c r="AB15" t="s">
         <v>25</v>
       </c>
       <c r="AC15" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
@@ -1641,37 +1626,37 @@
         <v>11377</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
         <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16">
-        <v>2199</v>
+        <v>52</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="K16" t="s">
         <v>20</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="N16" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="O16" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="P16" t="s">
         <v>23</v>
@@ -1679,11 +1664,26 @@
       <c r="Q16" t="s">
         <v>24</v>
       </c>
+      <c r="U16">
+        <v>3110</v>
+      </c>
+      <c r="V16" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16">
+        <v>570</v>
+      </c>
+      <c r="X16">
+        <v>0.5</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>62</v>
+      </c>
       <c r="AB16" t="s">
         <v>25</v>
       </c>
       <c r="AC16" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
@@ -1697,10 +1697,10 @@
         <v>11377</v>
       </c>
       <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
         <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>65</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
@@ -1733,16 +1733,13 @@
         <v>23</v>
       </c>
       <c r="Q17" t="s">
-        <v>26</v>
-      </c>
-      <c r="R17">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="AB17" t="s">
         <v>25</v>
       </c>
       <c r="AC17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
@@ -1756,10 +1753,10 @@
         <v>11377</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
         <v>29</v>
@@ -1777,10 +1774,10 @@
         <v>20</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c r="N18" t="s">
         <v>22</v>
@@ -1798,7 +1795,7 @@
         <v>25</v>
       </c>
       <c r="AC18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
@@ -1812,19 +1809,19 @@
         <v>11377</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H19" t="s">
         <v>20</v>
       </c>
-      <c r="I19" t="s">
-        <v>21</v>
+      <c r="I19">
+        <v>2199</v>
       </c>
       <c r="J19" t="s">
         <v>20</v>
@@ -1833,10 +1830,10 @@
         <v>20</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>59</v>
+        <v>287</v>
       </c>
       <c r="N19" t="s">
         <v>22</v>
@@ -1854,7 +1851,7 @@
         <v>25</v>
       </c>
       <c r="AC19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
@@ -1868,10 +1865,10 @@
         <v>11377</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -1879,213 +1876,192 @@
       <c r="H20" t="s">
         <v>20</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>59</v>
+      </c>
+      <c r="N20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20">
+        <v>155</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>11377</v>
+      </c>
+      <c r="B21">
+        <v>11377</v>
+      </c>
+      <c r="D21">
+        <v>11377</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>14</v>
+      </c>
+      <c r="M21">
+        <v>198</v>
+      </c>
+      <c r="N21" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>11377</v>
+      </c>
+      <c r="B22">
+        <v>11377</v>
+      </c>
+      <c r="D22">
+        <v>11377</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>59</v>
+      </c>
+      <c r="N22" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>11377</v>
+      </c>
+      <c r="B23">
+        <v>11377</v>
+      </c>
+      <c r="D23">
+        <v>11377</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="str">
         <f>"0"&amp;316</f>
         <v>0316</v>
       </c>
-      <c r="J20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20">
+      <c r="J23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23">
         <v>2</v>
       </c>
-      <c r="M20">
+      <c r="M23">
         <v>59</v>
-      </c>
-      <c r="N20" t="s">
-        <v>22</v>
-      </c>
-      <c r="O20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>24</v>
-      </c>
-      <c r="S20">
-        <v>26</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>11377</v>
-      </c>
-      <c r="B21">
-        <v>11377</v>
-      </c>
-      <c r="D21">
-        <v>11377</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>30</v>
-      </c>
-      <c r="N21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O21" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>26</v>
-      </c>
-      <c r="R21">
-        <v>155</v>
-      </c>
-      <c r="U21">
-        <v>3480</v>
-      </c>
-      <c r="V21" t="s">
-        <v>73</v>
-      </c>
-      <c r="W21">
-        <v>965</v>
-      </c>
-      <c r="X21">
-        <v>0.5</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <v>11377</v>
-      </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
-      <c r="M22">
-        <v>59</v>
-      </c>
-      <c r="N22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P22" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R22">
-        <v>155</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>11377</v>
-      </c>
-      <c r="B23">
-        <v>11377</v>
-      </c>
-      <c r="D23">
-        <v>11377</v>
-      </c>
-      <c r="E23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" t="s">
-        <v>72</v>
-      </c>
-      <c r="K23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>30</v>
       </c>
       <c r="N23" t="s">
         <v>22</v>
@@ -2099,32 +2075,14 @@
       <c r="Q23" t="s">
         <v>24</v>
       </c>
-      <c r="U23">
-        <v>3480</v>
-      </c>
-      <c r="V23" t="s">
-        <v>73</v>
-      </c>
-      <c r="W23">
-        <v>965</v>
-      </c>
-      <c r="X23">
-        <v>0.5</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>78</v>
+      <c r="S23">
+        <v>26</v>
       </c>
       <c r="AB23" t="s">
         <v>25</v>
       </c>
       <c r="AC23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
@@ -2138,31 +2096,31 @@
         <v>11377</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="I24" t="s">
         <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="K24" t="s">
         <v>20</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="N24" t="s">
         <v>22</v>
@@ -2174,30 +2132,48 @@
         <v>23</v>
       </c>
       <c r="Q24" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="R24">
+        <v>155</v>
+      </c>
+      <c r="U24">
+        <v>3480</v>
+      </c>
+      <c r="V24" t="s">
+        <v>73</v>
+      </c>
+      <c r="W24">
+        <v>965</v>
+      </c>
+      <c r="X24">
+        <v>0.5</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>62</v>
       </c>
       <c r="AB24" t="s">
         <v>25</v>
       </c>
       <c r="AC24" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>11377</v>
-      </c>
-      <c r="B25">
-        <v>11377</v>
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
       </c>
       <c r="D25">
         <v>11377</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -2230,51 +2206,54 @@
         <v>23</v>
       </c>
       <c r="Q25" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="R25">
+        <v>155</v>
       </c>
       <c r="AB25" t="s">
         <v>25</v>
       </c>
       <c r="AC25" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
+      <c r="A26">
+        <v>11377</v>
+      </c>
+      <c r="B26">
+        <v>11377</v>
       </c>
       <c r="D26">
         <v>11377</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="I26" t="s">
         <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="K26" t="s">
         <v>20</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N26" t="s">
         <v>22</v>
@@ -2286,19 +2265,34 @@
         <v>23</v>
       </c>
       <c r="Q26" t="s">
-        <v>26</v>
-      </c>
-      <c r="R26">
-        <v>173</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="U26">
+        <v>3480</v>
+      </c>
+      <c r="V26" t="s">
+        <v>73</v>
+      </c>
+      <c r="W26">
+        <v>965</v>
+      </c>
+      <c r="X26">
+        <v>0.5</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>78</v>
       </c>
       <c r="AB26" t="s">
         <v>25</v>
       </c>
       <c r="AC26" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.35">
@@ -2315,7 +2309,7 @@
         <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>29</v>
@@ -2336,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="M27">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N27" t="s">
         <v>22</v>
@@ -2348,19 +2342,13 @@
         <v>23</v>
       </c>
       <c r="Q27" t="s">
-        <v>26</v>
-      </c>
-      <c r="R27">
-        <v>173</v>
-      </c>
-      <c r="T27">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="AB27" t="s">
         <v>25</v>
       </c>
       <c r="AC27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.35">
@@ -2398,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="M28">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N28" t="s">
         <v>22</v>
@@ -2410,18 +2398,198 @@
         <v>23</v>
       </c>
       <c r="Q28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>11377</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>60</v>
+      </c>
+      <c r="N29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29" t="s">
         <v>26</v>
       </c>
-      <c r="R28">
+      <c r="R29">
         <v>173</v>
       </c>
-      <c r="T28">
+      <c r="T29">
         <v>1</v>
       </c>
-      <c r="AB28" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC28" t="s">
+      <c r="AB29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>11377</v>
+      </c>
+      <c r="B30">
+        <v>11377</v>
+      </c>
+      <c r="D30">
+        <v>11377</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>60</v>
+      </c>
+      <c r="N30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30">
+        <v>173</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>11377</v>
+      </c>
+      <c r="B31">
+        <v>11377</v>
+      </c>
+      <c r="D31">
+        <v>11377</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>60</v>
+      </c>
+      <c r="N31" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R31">
+        <v>173</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC31" t="s">
         <v>83</v>
       </c>
     </row>

--- a/TestData/OPR344_ExportManifest_TestData.xlsx
+++ b/TestData/OPR344_ExportManifest_TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-asaha\Automation 2024\Excel_6thJan\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-ssaha1\Desktop\ICargo KT\NewiCargoExternal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364DB5AE-50D7-4D2B-9F26-E98F2896248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF0AC65-38A0-4B65-B4CF-BA52AE60B2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" xr2:uid="{D08917F3-99AD-45FF-9344-C306FD5F654B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D08917F3-99AD-45FF-9344-C306FD5F654B}"/>
   </bookViews>
   <sheets>
     <sheet name="OPR344_EXP_00001" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,260 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="84">
+  <si>
+    <t>AgentCode</t>
+  </si>
+  <si>
+    <t>ConsigneeCode</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>ProductCode</t>
+  </si>
+  <si>
+    <t>SCC</t>
+  </si>
+  <si>
+    <t>Commodity</t>
+  </si>
+  <si>
+    <t>ShipmentDescription</t>
+  </si>
+  <si>
+    <t>ServiceCargoClass</t>
+  </si>
+  <si>
+    <t>Piece</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>ChargeType</t>
+  </si>
+  <si>
+    <t>ModeOfPayment</t>
+  </si>
+  <si>
+    <t>cartType</t>
+  </si>
+  <si>
+    <t>AWBSectionName</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>ASQXGUEST</t>
+  </si>
+  <si>
+    <t>C1001</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>JFK</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>NONSCR</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>CART</t>
+  </si>
+  <si>
+    <t>PlannedShipment</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>LyingList</t>
+  </si>
+  <si>
+    <t>FlightNumber</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>ShipperCode</t>
+  </si>
+  <si>
+    <t>UnknownShipperCode</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00002</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00001</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00003</t>
+  </si>
+  <si>
+    <t>LAX</t>
+  </si>
+  <si>
+    <t>ANC</t>
+  </si>
+  <si>
+    <t>HNL</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>GOLDSTREAK</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00004</t>
+  </si>
+  <si>
+    <t>SplitPieces</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00005</t>
+  </si>
+  <si>
+    <t>NewFlightNumber</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00006</t>
+  </si>
+  <si>
+    <t>UNID</t>
+  </si>
+  <si>
+    <t>ProperShipmentName</t>
+  </si>
+  <si>
+    <t>PackingInstruction</t>
+  </si>
+  <si>
+    <t>NetQtyPerPkg</t>
+  </si>
+  <si>
+    <t>ReportableQnty</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>DGR</t>
+  </si>
+  <si>
+    <t>UN8000</t>
+  </si>
+  <si>
+    <t>UN1845</t>
+  </si>
+  <si>
+    <t>UN3110</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>CREDIT</t>
+  </si>
+  <si>
+    <t>Consumer commodity</t>
+  </si>
+  <si>
+    <t>Dry ice</t>
+  </si>
+  <si>
+    <t>Organic peroxide type F, solid *</t>
+  </si>
+  <si>
+    <t>Y963</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00010</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00011</t>
+  </si>
+  <si>
+    <t>OME</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00012</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00013</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00014</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00015</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00017</t>
+  </si>
+  <si>
+    <t>DGR,CAO</t>
+  </si>
+  <si>
+    <t>UN3480</t>
+  </si>
+  <si>
+    <t>Lithium ion batteries</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00018</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00020</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>HandlingCode</t>
+  </si>
+  <si>
+    <t>CAO</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00021</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00022</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00025</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00026</t>
+  </si>
+  <si>
+    <t>OPR344_EXP_00027</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B131BF31-643E-4381-8A09-A9F51B3B824A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G8" sqref="A1:AC31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,7 +697,1735 @@
     <col min="28" max="28" width="7.1796875" customWidth="1"/>
     <col min="29" max="29" width="17.453125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>10763</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>13</v>
+      </c>
+      <c r="M2">
+        <v>775</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>10763</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>2199</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>360</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>11377</v>
+      </c>
+      <c r="B4">
+        <v>11377</v>
+      </c>
+      <c r="D4">
+        <v>11377</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>2199</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>26</v>
+      </c>
+      <c r="M4">
+        <v>123</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4">
+        <v>16</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>11377</v>
+      </c>
+      <c r="B5">
+        <v>11377</v>
+      </c>
+      <c r="D5">
+        <v>11377</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>13</v>
+      </c>
+      <c r="M5">
+        <v>775</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>11377</v>
+      </c>
+      <c r="B6">
+        <v>11377</v>
+      </c>
+      <c r="D6">
+        <v>11377</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>2199</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>360</v>
+      </c>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>11377</v>
+      </c>
+      <c r="B7">
+        <v>11377</v>
+      </c>
+      <c r="D7">
+        <v>11377</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>59</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>11377</v>
+      </c>
+      <c r="B8">
+        <v>11377</v>
+      </c>
+      <c r="D8">
+        <v>11377</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="str">
+        <f>"0"&amp;316</f>
+        <v>0316</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>234</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>11377</v>
+      </c>
+      <c r="B9">
+        <v>11377</v>
+      </c>
+      <c r="D9">
+        <v>11377</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>2199</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>189</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>11377</v>
+      </c>
+      <c r="B10">
+        <v>11377</v>
+      </c>
+      <c r="D10">
+        <v>11377</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="str">
+        <f>"0"&amp;316</f>
+        <v>0316</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>59</v>
+      </c>
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11377</v>
+      </c>
+      <c r="B11">
+        <v>11377</v>
+      </c>
+      <c r="D11">
+        <v>11377</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>30</v>
+      </c>
+      <c r="N11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11">
+        <v>8000</v>
+      </c>
+      <c r="V11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W11" t="s">
+        <v>61</v>
+      </c>
+      <c r="X11">
+        <v>0.5</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11377</v>
+      </c>
+      <c r="B12">
+        <v>11377</v>
+      </c>
+      <c r="D12">
+        <v>11377</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>65</v>
+      </c>
+      <c r="N12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12">
+        <v>1845</v>
+      </c>
+      <c r="V12" t="s">
+        <v>59</v>
+      </c>
+      <c r="W12">
+        <v>954</v>
+      </c>
+      <c r="X12">
+        <v>0.5</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11377</v>
+      </c>
+      <c r="B13">
+        <v>11377</v>
+      </c>
+      <c r="D13">
+        <v>11377</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>99</v>
+      </c>
+      <c r="N13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13">
+        <v>3110</v>
+      </c>
+      <c r="V13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W13">
+        <v>570</v>
+      </c>
+      <c r="X13">
+        <v>0.5</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>11377</v>
+      </c>
+      <c r="B14">
+        <v>11377</v>
+      </c>
+      <c r="D14">
+        <v>11377</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>59</v>
+      </c>
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>11377</v>
+      </c>
+      <c r="B15">
+        <v>11377</v>
+      </c>
+      <c r="D15">
+        <v>11377</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>59</v>
+      </c>
+      <c r="N15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>11377</v>
+      </c>
+      <c r="B16">
+        <v>11377</v>
+      </c>
+      <c r="D16">
+        <v>11377</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>2199</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>287</v>
+      </c>
+      <c r="N16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>11377</v>
+      </c>
+      <c r="B17">
+        <v>11377</v>
+      </c>
+      <c r="D17">
+        <v>11377</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>59</v>
+      </c>
+      <c r="N17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17">
+        <v>155</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>11377</v>
+      </c>
+      <c r="B18">
+        <v>11377</v>
+      </c>
+      <c r="D18">
+        <v>11377</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <v>198</v>
+      </c>
+      <c r="N18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>11377</v>
+      </c>
+      <c r="B19">
+        <v>11377</v>
+      </c>
+      <c r="D19">
+        <v>11377</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>59</v>
+      </c>
+      <c r="N19" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>11377</v>
+      </c>
+      <c r="B20">
+        <v>11377</v>
+      </c>
+      <c r="D20">
+        <v>11377</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="str">
+        <f>"0"&amp;316</f>
+        <v>0316</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>59</v>
+      </c>
+      <c r="N20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20">
+        <v>26</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>11377</v>
+      </c>
+      <c r="B21">
+        <v>11377</v>
+      </c>
+      <c r="D21">
+        <v>11377</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>30</v>
+      </c>
+      <c r="N21" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21">
+        <v>155</v>
+      </c>
+      <c r="U21">
+        <v>3480</v>
+      </c>
+      <c r="V21" t="s">
+        <v>73</v>
+      </c>
+      <c r="W21">
+        <v>965</v>
+      </c>
+      <c r="X21">
+        <v>0.5</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>11377</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>59</v>
+      </c>
+      <c r="N22" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22">
+        <v>155</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>11377</v>
+      </c>
+      <c r="B23">
+        <v>11377</v>
+      </c>
+      <c r="D23">
+        <v>11377</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>30</v>
+      </c>
+      <c r="N23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23">
+        <v>3480</v>
+      </c>
+      <c r="V23" t="s">
+        <v>73</v>
+      </c>
+      <c r="W23">
+        <v>965</v>
+      </c>
+      <c r="X23">
+        <v>0.5</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>11377</v>
+      </c>
+      <c r="B24">
+        <v>11377</v>
+      </c>
+      <c r="D24">
+        <v>11377</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>59</v>
+      </c>
+      <c r="N24" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>11377</v>
+      </c>
+      <c r="B25">
+        <v>11377</v>
+      </c>
+      <c r="D25">
+        <v>11377</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>59</v>
+      </c>
+      <c r="N25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>11377</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>60</v>
+      </c>
+      <c r="N26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26">
+        <v>173</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>11377</v>
+      </c>
+      <c r="B27">
+        <v>11377</v>
+      </c>
+      <c r="D27">
+        <v>11377</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>60</v>
+      </c>
+      <c r="N27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27">
+        <v>173</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>11377</v>
+      </c>
+      <c r="B28">
+        <v>11377</v>
+      </c>
+      <c r="D28">
+        <v>11377</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>60</v>
+      </c>
+      <c r="N28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28">
+        <v>173</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestData/OPR344_ExportManifest_TestData.xlsx
+++ b/TestData/OPR344_ExportManifest_TestData.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-asaha\Desktop\iCargo Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-asaha\Automation 2025\Xunit_Sprint 5\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC886668-E305-4726-9CFC-28F0E4A62F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEF8DC6-C49D-4595-8F50-F7BF3E49F944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D08917F3-99AD-45FF-9344-C306FD5F654B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{D08917F3-99AD-45FF-9344-C306FD5F654B}"/>
   </bookViews>
   <sheets>
     <sheet name="OPR344_EXP_00001" sheetId="1" r:id="rId1"/>
     <sheet name="OPR344_EXP_00002" sheetId="2" r:id="rId2"/>
+    <sheet name="OPR344_EXP_00003" sheetId="3" r:id="rId3"/>
+    <sheet name="OPR344_EXP_00004" sheetId="4" r:id="rId4"/>
+    <sheet name="OPR344_EXP_00005" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="41">
   <si>
     <t>AgentCode</t>
   </si>
@@ -127,6 +130,39 @@
   </si>
   <si>
     <t>LyingList</t>
+  </si>
+  <si>
+    <t>LAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENERAL </t>
+  </si>
+  <si>
+    <t>ANC</t>
+  </si>
+  <si>
+    <t>HNL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIORITY </t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>GOLDSTREAK</t>
+  </si>
+  <si>
+    <t>SplitPieces</t>
+  </si>
+  <si>
+    <t>0316</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>NewFlightNumber</t>
   </si>
 </sst>
 </file>
@@ -162,8 +198,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C2203D-31D6-4A5C-8EE4-DD21EADB67E8}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -763,4 +800,517 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD87BE0-E002-4CAC-8784-7DC74754F54D}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>13</v>
+      </c>
+      <c r="L2">
+        <v>775</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>11377</v>
+      </c>
+      <c r="B3">
+        <v>11377</v>
+      </c>
+      <c r="C3">
+        <v>11377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>2199</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>360</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>11377</v>
+      </c>
+      <c r="B4">
+        <v>11377</v>
+      </c>
+      <c r="C4">
+        <v>11377</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>59</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A1A556-855B-4287-9479-486584C6AADD}">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>234</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>11377</v>
+      </c>
+      <c r="B3">
+        <v>11377</v>
+      </c>
+      <c r="C3">
+        <v>11377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>2199</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>189</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55C7C02-4616-4D11-9FD1-3B62E9E2EFDB}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/OPR344_ExportManifest_TestData.xlsx
+++ b/TestData/OPR344_ExportManifest_TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-asaha\Automation 2025\Xunit_Sprint 5\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEF8DC6-C49D-4595-8F50-F7BF3E49F944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAD2963-D388-427F-827E-CC03A60E5E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{D08917F3-99AD-45FF-9344-C306FD5F654B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="5" xr2:uid="{D08917F3-99AD-45FF-9344-C306FD5F654B}"/>
   </bookViews>
   <sheets>
     <sheet name="OPR344_EXP_00001" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="OPR344_EXP_00003" sheetId="3" r:id="rId3"/>
     <sheet name="OPR344_EXP_00004" sheetId="4" r:id="rId4"/>
     <sheet name="OPR344_EXP_00005" sheetId="5" r:id="rId5"/>
+    <sheet name="OPR344_EXP_00006" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="58">
   <si>
     <t>AgentCode</t>
   </si>
@@ -163,6 +164,57 @@
   </si>
   <si>
     <t>NewFlightNumber</t>
+  </si>
+  <si>
+    <t>UNID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProperShipmentName </t>
+  </si>
+  <si>
+    <t>PackingInstruction</t>
+  </si>
+  <si>
+    <t>NetQtyPerPkg</t>
+  </si>
+  <si>
+    <t>ReportableQnty</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>DGR</t>
+  </si>
+  <si>
+    <t>UN8000</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>CREDIT</t>
+  </si>
+  <si>
+    <t>Consumer commodity</t>
+  </si>
+  <si>
+    <t>Y963</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>UN1845</t>
+  </si>
+  <si>
+    <t>Dry ice</t>
+  </si>
+  <si>
+    <t>UN3110</t>
+  </si>
+  <si>
+    <t>Organic peroxide type F, solid *</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55C7C02-4616-4D11-9FD1-3B62E9E2EFDB}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1313,4 +1365,282 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D11DF4C-004B-4099-8B4F-ED054BC858FF}">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="21" max="21" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2">
+        <v>8000</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2">
+        <v>0.5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>11377</v>
+      </c>
+      <c r="B3">
+        <v>11377</v>
+      </c>
+      <c r="C3">
+        <v>11377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>65</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3">
+        <v>1845</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3">
+        <v>954</v>
+      </c>
+      <c r="S3">
+        <v>0.5</v>
+      </c>
+      <c r="T3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>11377</v>
+      </c>
+      <c r="B4">
+        <v>11377</v>
+      </c>
+      <c r="C4">
+        <v>11377</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>99</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4">
+        <v>3110</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4">
+        <v>570</v>
+      </c>
+      <c r="S4">
+        <v>0.5</v>
+      </c>
+      <c r="T4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/OPR344_ExportManifest_TestData.xlsx
+++ b/TestData/OPR344_ExportManifest_TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-asaha\Automation 2025\Xunit_Sprint 5\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAD2963-D388-427F-827E-CC03A60E5E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DCF891-B266-49EA-85DC-FB1D8C54CCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="5" xr2:uid="{D08917F3-99AD-45FF-9344-C306FD5F654B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="6" xr2:uid="{D08917F3-99AD-45FF-9344-C306FD5F654B}"/>
   </bookViews>
   <sheets>
     <sheet name="OPR344_EXP_00001" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="OPR344_EXP_00004" sheetId="4" r:id="rId4"/>
     <sheet name="OPR344_EXP_00005" sheetId="5" r:id="rId5"/>
     <sheet name="OPR344_EXP_00006" sheetId="6" r:id="rId6"/>
+    <sheet name="OPR344_EXP_00010" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="58">
   <si>
     <t>AgentCode</t>
   </si>
@@ -1371,7 +1372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D11DF4C-004B-4099-8B4F-ED054BC858FF}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -1643,4 +1644,119 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4E302E-13D9-452B-AF22-7D163811A30A}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/OPR344_ExportManifest_TestData.xlsx
+++ b/TestData/OPR344_ExportManifest_TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-asaha\Automation 2025\Xunit_Sprint 5\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEF8DC6-C49D-4595-8F50-F7BF3E49F944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DCF891-B266-49EA-85DC-FB1D8C54CCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{D08917F3-99AD-45FF-9344-C306FD5F654B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="6" xr2:uid="{D08917F3-99AD-45FF-9344-C306FD5F654B}"/>
   </bookViews>
   <sheets>
     <sheet name="OPR344_EXP_00001" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="OPR344_EXP_00003" sheetId="3" r:id="rId3"/>
     <sheet name="OPR344_EXP_00004" sheetId="4" r:id="rId4"/>
     <sheet name="OPR344_EXP_00005" sheetId="5" r:id="rId5"/>
+    <sheet name="OPR344_EXP_00006" sheetId="6" r:id="rId6"/>
+    <sheet name="OPR344_EXP_00010" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="58">
   <si>
     <t>AgentCode</t>
   </si>
@@ -163,6 +165,57 @@
   </si>
   <si>
     <t>NewFlightNumber</t>
+  </si>
+  <si>
+    <t>UNID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProperShipmentName </t>
+  </si>
+  <si>
+    <t>PackingInstruction</t>
+  </si>
+  <si>
+    <t>NetQtyPerPkg</t>
+  </si>
+  <si>
+    <t>ReportableQnty</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>DGR</t>
+  </si>
+  <si>
+    <t>UN8000</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>CREDIT</t>
+  </si>
+  <si>
+    <t>Consumer commodity</t>
+  </si>
+  <si>
+    <t>Y963</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>UN1845</t>
+  </si>
+  <si>
+    <t>Dry ice</t>
+  </si>
+  <si>
+    <t>UN3110</t>
+  </si>
+  <si>
+    <t>Organic peroxide type F, solid *</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55C7C02-4616-4D11-9FD1-3B62E9E2EFDB}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1313,4 +1366,397 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D11DF4C-004B-4099-8B4F-ED054BC858FF}">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="21" max="21" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2">
+        <v>8000</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2">
+        <v>0.5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>11377</v>
+      </c>
+      <c r="B3">
+        <v>11377</v>
+      </c>
+      <c r="C3">
+        <v>11377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>65</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3">
+        <v>1845</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3">
+        <v>954</v>
+      </c>
+      <c r="S3">
+        <v>0.5</v>
+      </c>
+      <c r="T3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>11377</v>
+      </c>
+      <c r="B4">
+        <v>11377</v>
+      </c>
+      <c r="C4">
+        <v>11377</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>99</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4">
+        <v>3110</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4">
+        <v>570</v>
+      </c>
+      <c r="S4">
+        <v>0.5</v>
+      </c>
+      <c r="T4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4E302E-13D9-452B-AF22-7D163811A30A}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/OPR344_ExportManifest_TestData.xlsx
+++ b/TestData/OPR344_ExportManifest_TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-asaha\Automation 2025\Xunit_Sprint 5\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-ssaha1\Desktop\ICargo KT\Xunit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DCF891-B266-49EA-85DC-FB1D8C54CCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FFD869-9ED8-4084-97C7-27F447AC906C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="6" xr2:uid="{D08917F3-99AD-45FF-9344-C306FD5F654B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="18" activeTab="20" xr2:uid="{4A2F2A72-D862-47A0-B5E4-CC538090D2B0}"/>
   </bookViews>
   <sheets>
     <sheet name="OPR344_EXP_00001" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,20 @@
     <sheet name="OPR344_EXP_00005" sheetId="5" r:id="rId5"/>
     <sheet name="OPR344_EXP_00006" sheetId="6" r:id="rId6"/>
     <sheet name="OPR344_EXP_00010" sheetId="7" r:id="rId7"/>
+    <sheet name="OPR344_EXP_00011" sheetId="8" r:id="rId8"/>
+    <sheet name="OPR344_EXP_00012" sheetId="9" r:id="rId9"/>
+    <sheet name="OPR344_EXP_00013" sheetId="10" r:id="rId10"/>
+    <sheet name="OPR344_EXP_00014" sheetId="11" r:id="rId11"/>
+    <sheet name="OPR344_EXP_00015" sheetId="12" r:id="rId12"/>
+    <sheet name="OPR344_EXP_00017" sheetId="13" r:id="rId13"/>
+    <sheet name="OPR344_EXP_00018" sheetId="14" r:id="rId14"/>
+    <sheet name="OPR344_EXP_00020" sheetId="15" r:id="rId15"/>
+    <sheet name="OPR344_EXP_00021" sheetId="16" r:id="rId16"/>
+    <sheet name="OPR344_EXP_00022" sheetId="17" r:id="rId17"/>
+    <sheet name="OPR344_EXP_00025" sheetId="18" r:id="rId18"/>
+    <sheet name="OPR344_EXP_00026" sheetId="19" r:id="rId19"/>
+    <sheet name="OPR344_EXP_00027" sheetId="20" r:id="rId20"/>
+    <sheet name="OPR344_EXP_00028" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,11 +56,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="66">
   <si>
     <t>AgentCode</t>
   </si>
   <si>
+    <t>UnknownShipperCode</t>
+  </si>
+  <si>
     <t>ConsigneeCode</t>
   </si>
   <si>
@@ -101,6 +118,9 @@
     <t>JFK</t>
   </si>
   <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
@@ -116,12 +136,6 @@
     <t>PlannedShipment</t>
   </si>
   <si>
-    <t>GENERAL</t>
-  </si>
-  <si>
-    <t>UnknownShipperCode</t>
-  </si>
-  <si>
     <t xml:space="preserve">ShipperCode </t>
   </si>
   <si>
@@ -216,6 +230,30 @@
   </si>
   <si>
     <t>Organic peroxide type F, solid *</t>
+  </si>
+  <si>
+    <t>OME</t>
+  </si>
+  <si>
+    <t>DGR,CAO</t>
+  </si>
+  <si>
+    <t>UN3480</t>
+  </si>
+  <si>
+    <t>ProperShipmentName</t>
+  </si>
+  <si>
+    <t>Lithium ion batteries</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>HandlingCode</t>
+  </si>
+  <si>
+    <t>CAO</t>
   </si>
 </sst>
 </file>
@@ -587,41 +625,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B131BF31-643E-4381-8A09-A9F51B3B824A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3405C8-064D-439D-892A-250B297B720F}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" customWidth="1"/>
-    <col min="4" max="4" width="6.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" customWidth="1"/>
-    <col min="9" max="9" width="17.7265625" customWidth="1"/>
-    <col min="10" max="10" width="15.90625" customWidth="1"/>
-    <col min="11" max="11" width="5.36328125" customWidth="1"/>
-    <col min="12" max="12" width="7.54296875" customWidth="1"/>
-    <col min="13" max="13" width="10.26953125" customWidth="1"/>
-    <col min="14" max="14" width="13.90625" customWidth="1"/>
-    <col min="15" max="15" width="7.7265625" customWidth="1"/>
-    <col min="16" max="16" width="15.7265625" customWidth="1"/>
-    <col min="17" max="17" width="12.08984375" customWidth="1"/>
-    <col min="18" max="18" width="15.453125" customWidth="1"/>
-    <col min="19" max="19" width="10.08984375" customWidth="1"/>
-    <col min="20" max="20" width="5.7265625" customWidth="1"/>
-    <col min="21" max="21" width="25.81640625" customWidth="1"/>
-    <col min="22" max="22" width="15.81640625" customWidth="1"/>
-    <col min="23" max="23" width="11.7265625" customWidth="1"/>
-    <col min="24" max="24" width="13.7265625" customWidth="1"/>
-    <col min="25" max="25" width="6.7265625" customWidth="1"/>
-    <col min="26" max="26" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -629,99 +652,796 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>10763</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>13</v>
+      </c>
+      <c r="L2">
+        <v>775</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
         <v>25</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8DFE2F-9ACE-4F06-9DF8-4475B0A3C877}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>198</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7043FCA6-2FB3-4A38-9F0C-7E211FC123E2}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8718DD54-2741-4A68-8950-E5F34692E75E}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="str">
+        <f>"0"&amp;316</f>
+        <v>0316</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04EA279-8D72-42BF-A62F-F24DC5DD6715}">
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:V2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2">
+        <v>3480</v>
+      </c>
+      <c r="P2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2">
+        <v>965</v>
+      </c>
+      <c r="R2">
+        <v>0.5</v>
+      </c>
+      <c r="S2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2">
+        <v>155</v>
+      </c>
+      <c r="V2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1970537-3C0D-4B1C-B282-578DB1BA6295}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>10763</v>
+        <v>11377</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2">
+        <v>155</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2">
-        <v>13</v>
-      </c>
-      <c r="L2">
-        <v>775</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -730,17 +1450,740 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C2203D-31D6-4A5C-8EE4-DD21EADB67E8}">
-  <dimension ref="A1:Q2"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858D018B-7C88-4952-80F9-648942F3CC51}">
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection sqref="A1:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2">
+        <v>3480</v>
+      </c>
+      <c r="P2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2">
+        <v>965</v>
+      </c>
+      <c r="R2">
+        <v>0.5</v>
+      </c>
+      <c r="S2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DB051C-C034-4D73-97FA-BEBE8E9EA08C}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64935B7F-8999-44FA-A06A-05EB468DD0E7}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64195E5B-8F95-4294-9D13-F7FF6F145626}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2">
+        <v>173</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A475D373-CE6A-4A53-8458-E7291611DAD3}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2">
+        <v>173</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4237AA2-607D-4446-81F9-0755D4F9B816}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -752,49 +2195,49 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
         <v>27</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -808,25 +2251,25 @@
         <v>11377</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>2199</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2">
         <v>26</v>
@@ -835,10 +2278,10 @@
         <v>123</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O2">
         <v>16</v>
@@ -848,6 +2291,371 @@
       </c>
       <c r="Q2" t="s">
         <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4857B88B-AC0A-4EEA-8393-5AE17685CCF6}">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:Q3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1796875" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7265625" customWidth="1"/>
+    <col min="17" max="17" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>16956</v>
+      </c>
+      <c r="B2">
+        <v>16956</v>
+      </c>
+      <c r="C2">
+        <v>16956</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>270</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>16956</v>
+      </c>
+      <c r="B3">
+        <v>16956</v>
+      </c>
+      <c r="C3">
+        <v>16956</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>240</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9ECBA3E-2EB5-4280-97C6-AE6B82AA22B5}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>180</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2">
+        <v>3480</v>
+      </c>
+      <c r="P2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2">
+        <v>965</v>
+      </c>
+      <c r="R2">
+        <v>0.5</v>
+      </c>
+      <c r="S2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>2002</v>
       </c>
     </row>
   </sheetData>
@@ -856,15 +2664,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD87BE0-E002-4CAC-8784-7DC74754F54D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A359A9E8-2799-4B89-8B4A-9D565FDF31C8}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -876,46 +2694,46 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -929,7 +2747,7 @@
         <v>11377</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
@@ -938,16 +2756,16 @@
         <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2">
         <v>13</v>
@@ -956,16 +2774,16 @@
         <v>775</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -988,16 +2806,16 @@
         <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>2199</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -1006,16 +2824,16 @@
         <v>360</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -1032,22 +2850,22 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1056,16 +2874,16 @@
         <v>59</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1074,14 +2892,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A1A556-855B-4287-9479-486584C6AADD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3E9EF-A87F-4EE0-BD3F-AEACF3F3762C}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1091,49 +2923,49 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P1" t="s">
         <v>37</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -1150,22 +2982,22 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1174,19 +3006,19 @@
         <v>234</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -1209,16 +3041,16 @@
         <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>2199</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>10</v>
@@ -1227,19 +3059,19 @@
         <v>189</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1248,14 +3080,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55C7C02-4616-4D11-9FD1-3B62E9E2EFDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B037E4-4451-4C9D-9B01-AA4B41A4DF5A}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1265,49 +3111,49 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P1" t="s">
         <v>40</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -1321,25 +3167,25 @@
         <v>11377</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1348,19 +3194,19 @@
         <v>59</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P2">
         <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1369,276 +3215,250 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D11DF4C-004B-4099-8B4F-ED054BC858FF}">
-  <dimension ref="A1:U4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1A59FD-5C08-4A5B-BE62-5BF159045C03}">
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="21" max="21" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>8000</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I3">
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>1845</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3">
+        <v>954</v>
+      </c>
+      <c r="P3">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>11377</v>
-      </c>
-      <c r="B2">
-        <v>11377</v>
-      </c>
-      <c r="C2">
-        <v>11377</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="I4">
+        <v>99</v>
+      </c>
+      <c r="J4" t="s">
         <v>49</v>
       </c>
-      <c r="N2" t="s">
+      <c r="K4" t="s">
         <v>50</v>
       </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2">
-        <v>8000</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2">
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>3110</v>
+      </c>
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4">
+        <v>570</v>
+      </c>
+      <c r="P4">
         <v>0.5</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Q4" t="s">
         <v>53</v>
       </c>
-      <c r="U2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>11377</v>
-      </c>
-      <c r="B3">
-        <v>11377</v>
-      </c>
-      <c r="C3">
-        <v>11377</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>65</v>
-      </c>
-      <c r="M3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3">
-        <v>1845</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3">
-        <v>954</v>
-      </c>
-      <c r="S3">
-        <v>0.5</v>
-      </c>
-      <c r="T3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>11377</v>
-      </c>
-      <c r="B4">
-        <v>11377</v>
-      </c>
-      <c r="C4">
-        <v>11377</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>99</v>
-      </c>
-      <c r="M4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4">
-        <v>3110</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4">
-        <v>570</v>
-      </c>
-      <c r="S4">
-        <v>0.5</v>
-      </c>
-      <c r="T4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" t="s">
-        <v>23</v>
+      <c r="R4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1647,14 +3467,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4E302E-13D9-452B-AF22-7D163811A30A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55838455-B793-459B-B87F-42BC45E9C52F}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1664,46 +3497,46 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -1717,7 +3550,7 @@
         <v>11377</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -1726,16 +3559,16 @@
         <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1744,19 +3577,333 @@
         <v>59</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4E1ED3-0D31-416C-90F1-02848B1B322D}">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>11377</v>
+      </c>
+      <c r="B3">
+        <v>11377</v>
+      </c>
+      <c r="C3">
+        <v>11377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>2199</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>287</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077EDD78-85E4-4FE1-B4AE-C737151368FA}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2">
+        <v>155</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestData/OPR344_ExportManifest_TestData.xlsx
+++ b/TestData/OPR344_ExportManifest_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-ssaha1\Desktop\ICargo KT\Xunit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FFD869-9ED8-4084-97C7-27F447AC906C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9222C2-A83A-4FC5-A2CA-81D6068ADF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="18" activeTab="20" xr2:uid="{4A2F2A72-D862-47A0-B5E4-CC538090D2B0}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="66">
   <si>
     <t>AgentCode</t>
   </si>
@@ -2489,10 +2489,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9ECBA3E-2EB5-4280-97C6-AE6B82AA22B5}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2512,11 +2512,11 @@
     <col min="18" max="18" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2575,19 +2575,16 @@
         <v>45</v>
       </c>
       <c r="T1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11377</v>
       </c>
@@ -2646,15 +2643,12 @@
         <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" t="s">
         <v>24</v>
       </c>
+      <c r="U2">
+        <v>3</v>
+      </c>
       <c r="V2">
-        <v>3</v>
-      </c>
-      <c r="W2">
         <v>2002</v>
       </c>
     </row>

--- a/TestData/OPR344_ExportManifest_TestData.xlsx
+++ b/TestData/OPR344_ExportManifest_TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-ssaha1\Desktop\ICargo KT\Xunit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9222C2-A83A-4FC5-A2CA-81D6068ADF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DA3DEE-D5EA-4434-B5E4-B714FE0B93BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="18" activeTab="20" xr2:uid="{4A2F2A72-D862-47A0-B5E4-CC538090D2B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="13" activeTab="13" xr2:uid="{4A2F2A72-D862-47A0-B5E4-CC538090D2B0}"/>
   </bookViews>
   <sheets>
     <sheet name="OPR344_EXP_00001" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="66">
   <si>
     <t>AgentCode</t>
   </si>
@@ -1318,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1970537-3C0D-4B1C-B282-578DB1BA6295}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:Q2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1408,7 +1408,7 @@
         <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1629,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DB051C-C034-4D73-97FA-BEBE8E9EA08C}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1715,7 +1715,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1758,7 +1758,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:P2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1843,7 +1843,7 @@
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1883,10 +1883,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64195E5B-8F95-4294-9D13-F7FF6F145626}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:R2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1899,13 +1899,14 @@
     <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.08984375" customWidth="1"/>
+    <col min="17" max="18" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1952,16 +1953,13 @@
         <v>27</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1978,7 +1976,7 @@
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2008,12 +2006,9 @@
         <v>173</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
         <v>24</v>
       </c>
-      <c r="R2">
+      <c r="Q2">
         <v>1</v>
       </c>
     </row>
@@ -2024,10 +2019,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A475D373-CE6A-4A53-8458-E7291611DAD3}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:R2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2043,10 +2038,10 @@
     <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2093,16 +2088,13 @@
         <v>27</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11377</v>
       </c>
@@ -2119,7 +2111,7 @@
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2149,12 +2141,9 @@
         <v>173</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
         <v>24</v>
       </c>
-      <c r="R2">
+      <c r="Q2">
         <v>1</v>
       </c>
     </row>
@@ -2303,7 +2292,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:Q3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2393,7 +2382,7 @@
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2491,7 +2480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9ECBA3E-2EB5-4280-97C6-AE6B82AA22B5}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>

--- a/TestData/OPR344_ExportManifest_TestData.xlsx
+++ b/TestData/OPR344_ExportManifest_TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-ssaha1\Desktop\ICargo KT\Xunit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DA3DEE-D5EA-4434-B5E4-B714FE0B93BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4042B338-DADD-48FC-934F-1DEF8BA9E1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="13" activeTab="13" xr2:uid="{4A2F2A72-D862-47A0-B5E4-CC538090D2B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="10" activeTab="11" xr2:uid="{4A2F2A72-D862-47A0-B5E4-CC538090D2B0}"/>
   </bookViews>
   <sheets>
     <sheet name="OPR344_EXP_00001" sheetId="1" r:id="rId1"/>
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8718DD54-2741-4A68-8950-E5F34692E75E}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:Q2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1102,7 +1102,7 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1318,7 +1318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1970537-3C0D-4B1C-B282-578DB1BA6295}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/TestData/OPR344_ExportManifest_TestData.xlsx
+++ b/TestData/OPR344_ExportManifest_TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-ssaha1\Desktop\ICargo KT\Xunit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4042B338-DADD-48FC-934F-1DEF8BA9E1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F9FB1B-8698-490B-BC29-75551A01EA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="10" activeTab="11" xr2:uid="{4A2F2A72-D862-47A0-B5E4-CC538090D2B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="16" activeTab="18" xr2:uid="{4A2F2A72-D862-47A0-B5E4-CC538090D2B0}"/>
   </bookViews>
   <sheets>
     <sheet name="OPR344_EXP_00001" sheetId="1" r:id="rId1"/>
@@ -757,7 +757,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:P2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -842,7 +842,7 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -885,7 +885,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:P2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -970,7 +970,7 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8718DD54-2741-4A68-8950-E5F34692E75E}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1133,7 +1133,7 @@
         <v>25</v>
       </c>
       <c r="P2">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="s">
         <v>24</v>
@@ -1885,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64195E5B-8F95-4294-9D13-F7FF6F145626}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2003,7 +2003,7 @@
         <v>21</v>
       </c>
       <c r="O2">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="P2" t="s">
         <v>24</v>
@@ -2021,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A475D373-CE6A-4A53-8458-E7291611DAD3}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2138,7 +2138,7 @@
         <v>21</v>
       </c>
       <c r="O2">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="P2" t="s">
         <v>24</v>
@@ -3201,7 +3201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1A59FD-5C08-4A5B-BE62-5BF159045C03}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:R4"/>
     </sheetView>
   </sheetViews>
@@ -3454,7 +3454,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3539,7 +3539,7 @@
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3582,7 +3582,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:O3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3667,7 +3667,7 @@
         <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3760,7 +3760,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3849,7 +3849,7 @@
         <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>

--- a/TestData/OPR344_ExportManifest_TestData.xlsx
+++ b/TestData/OPR344_ExportManifest_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-ssaha1\Desktop\ICargo KT\Xunit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-asaha\Automation 2025\Xunit Sprint 7\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F9FB1B-8698-490B-BC29-75551A01EA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46E08D8-85F1-4645-84D9-93F261543FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="16" activeTab="18" xr2:uid="{4A2F2A72-D862-47A0-B5E4-CC538090D2B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4A2F2A72-D862-47A0-B5E4-CC538090D2B0}"/>
   </bookViews>
   <sheets>
     <sheet name="OPR344_EXP_00001" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="66">
   <si>
     <t>AgentCode</t>
   </si>
@@ -260,10 +260,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -626,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3405C8-064D-439D-892A-250B297B720F}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -638,7 +644,7 @@
     <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
@@ -747,7 +753,558 @@
         <v>25</v>
       </c>
     </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>10763</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>13</v>
+      </c>
+      <c r="L3">
+        <v>775</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>10763</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>2199</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>360</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>10763</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <v>775</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>10763</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <v>775</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>10763</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>2199</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <v>360</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>10763</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <v>775</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>10763</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <v>775</v>
+      </c>
+      <c r="M9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>10763</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10">
+        <v>2199</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>360</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>10763</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11">
+        <v>13</v>
+      </c>
+      <c r="L11">
+        <v>775</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>10763</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12">
+        <v>13</v>
+      </c>
+      <c r="L12">
+        <v>775</v>
+      </c>
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>10763</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13">
+        <v>2199</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <v>360</v>
+      </c>
+      <c r="M13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2021,7 +2578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A475D373-CE6A-4A53-8458-E7291611DAD3}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/TestData/OPR344_ExportManifest_TestData.xlsx
+++ b/TestData/OPR344_ExportManifest_TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-asaha\Automation 2025\Xunit Sprint 7\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-vkaushal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46E08D8-85F1-4645-84D9-93F261543FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C478B5-174E-42DC-AB8C-321A4383CA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4A2F2A72-D862-47A0-B5E4-CC538090D2B0}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="21570" windowHeight="12870" firstSheet="3" activeTab="6" xr2:uid="{4A2F2A72-D862-47A0-B5E4-CC538090D2B0}"/>
   </bookViews>
   <sheets>
     <sheet name="OPR344_EXP_00001" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,22 @@
     <sheet name="OPR344_EXP_00004" sheetId="4" r:id="rId4"/>
     <sheet name="OPR344_EXP_00005" sheetId="5" r:id="rId5"/>
     <sheet name="OPR344_EXP_00006" sheetId="6" r:id="rId6"/>
-    <sheet name="OPR344_EXP_00010" sheetId="7" r:id="rId7"/>
-    <sheet name="OPR344_EXP_00011" sheetId="8" r:id="rId8"/>
-    <sheet name="OPR344_EXP_00012" sheetId="9" r:id="rId9"/>
-    <sheet name="OPR344_EXP_00013" sheetId="10" r:id="rId10"/>
-    <sheet name="OPR344_EXP_00014" sheetId="11" r:id="rId11"/>
-    <sheet name="OPR344_EXP_00015" sheetId="12" r:id="rId12"/>
-    <sheet name="OPR344_EXP_00017" sheetId="13" r:id="rId13"/>
-    <sheet name="OPR344_EXP_00018" sheetId="14" r:id="rId14"/>
-    <sheet name="OPR344_EXP_00020" sheetId="15" r:id="rId15"/>
-    <sheet name="OPR344_EXP_00021" sheetId="16" r:id="rId16"/>
-    <sheet name="OPR344_EXP_00022" sheetId="17" r:id="rId17"/>
-    <sheet name="OPR344_EXP_00025" sheetId="18" r:id="rId18"/>
-    <sheet name="OPR344_EXP_00026" sheetId="19" r:id="rId19"/>
-    <sheet name="OPR344_EXP_00027" sheetId="20" r:id="rId20"/>
-    <sheet name="OPR344_EXP_00028" sheetId="21" r:id="rId21"/>
+    <sheet name="OPR344_EXP_00008" sheetId="22" r:id="rId7"/>
+    <sheet name="OPR344_EXP_00010" sheetId="7" r:id="rId8"/>
+    <sheet name="OPR344_EXP_00011" sheetId="8" r:id="rId9"/>
+    <sheet name="OPR344_EXP_00012" sheetId="9" r:id="rId10"/>
+    <sheet name="OPR344_EXP_00013" sheetId="10" r:id="rId11"/>
+    <sheet name="OPR344_EXP_00014" sheetId="11" r:id="rId12"/>
+    <sheet name="OPR344_EXP_00015" sheetId="12" r:id="rId13"/>
+    <sheet name="OPR344_EXP_00017" sheetId="13" r:id="rId14"/>
+    <sheet name="OPR344_EXP_00018" sheetId="14" r:id="rId15"/>
+    <sheet name="OPR344_EXP_00020" sheetId="15" r:id="rId16"/>
+    <sheet name="OPR344_EXP_00021" sheetId="16" r:id="rId17"/>
+    <sheet name="OPR344_EXP_00022" sheetId="17" r:id="rId18"/>
+    <sheet name="OPR344_EXP_00025" sheetId="18" r:id="rId19"/>
+    <sheet name="OPR344_EXP_00026" sheetId="19" r:id="rId20"/>
+    <sheet name="OPR344_EXP_00027" sheetId="20" r:id="rId21"/>
+    <sheet name="OPR344_EXP_00028" sheetId="21" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="66">
   <si>
     <t>AgentCode</t>
   </si>
@@ -260,16 +261,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -632,28 +627,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3405C8-064D-439D-892A-250B297B720F}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -753,586 +748,36 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>10763</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3">
-        <v>13</v>
-      </c>
-      <c r="L3">
-        <v>775</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>10763</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <v>2199</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4">
-        <v>8</v>
-      </c>
-      <c r="L4">
-        <v>360</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>10763</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5">
-        <v>13</v>
-      </c>
-      <c r="L5">
-        <v>775</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>10763</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6">
-        <v>13</v>
-      </c>
-      <c r="L6">
-        <v>775</v>
-      </c>
-      <c r="M6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>10763</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7">
-        <v>2199</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7">
-        <v>8</v>
-      </c>
-      <c r="L7">
-        <v>360</v>
-      </c>
-      <c r="M7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>10763</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8">
-        <v>13</v>
-      </c>
-      <c r="L8">
-        <v>775</v>
-      </c>
-      <c r="M8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>10763</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9">
-        <v>13</v>
-      </c>
-      <c r="L9">
-        <v>775</v>
-      </c>
-      <c r="M9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>10763</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10">
-        <v>2199</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10">
-        <v>8</v>
-      </c>
-      <c r="L10">
-        <v>360</v>
-      </c>
-      <c r="M10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>10763</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11">
-        <v>13</v>
-      </c>
-      <c r="L11">
-        <v>775</v>
-      </c>
-      <c r="M11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>10763</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12">
-        <v>13</v>
-      </c>
-      <c r="L12">
-        <v>775</v>
-      </c>
-      <c r="M12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>10763</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13">
-        <v>2199</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13">
-        <v>8</v>
-      </c>
-      <c r="L13">
-        <v>360</v>
-      </c>
-      <c r="M13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8DFE2F-9ACE-4F06-9DF8-4475B0A3C877}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077EDD78-85E4-4FE1-B4AE-C737151368FA}">
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1376,13 +821,16 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11377</v>
       </c>
@@ -1393,13 +841,13 @@
         <v>11377</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1414,10 +862,10 @@
         <v>21</v>
       </c>
       <c r="K2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c r="M2" t="s">
         <v>23</v>
@@ -1425,42 +873,99 @@
       <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" t="s">
-        <v>25</v>
+      <c r="O2">
+        <v>155</v>
       </c>
       <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11377</v>
+      </c>
+      <c r="B3">
+        <v>11377</v>
+      </c>
+      <c r="C3">
+        <v>11377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>59</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3">
+        <v>155</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7043FCA6-2FB3-4A38-9F0C-7E211FC123E2}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8DFE2F-9ACE-4F06-9DF8-4475B0A3C877}">
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +1015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11377</v>
       </c>
@@ -1527,7 +1032,7 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1542,10 +1047,10 @@
         <v>21</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L2">
-        <v>59</v>
+        <v>198</v>
       </c>
       <c r="M2" t="s">
         <v>23</v>
@@ -1557,6 +1062,56 @@
         <v>25</v>
       </c>
       <c r="P2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11377</v>
+      </c>
+      <c r="B3">
+        <v>11377</v>
+      </c>
+      <c r="C3">
+        <v>11377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>198</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1566,30 +1121,29 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8718DD54-2741-4A68-8950-E5F34692E75E}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7043FCA6-2FB3-4A38-9F0C-7E211FC123E2}">
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1636,13 +1190,10 @@
         <v>15</v>
       </c>
       <c r="P1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11377</v>
       </c>
@@ -1659,14 +1210,13 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="str">
-        <f>"0"&amp;316</f>
-        <v>0316</v>
+      <c r="H2" t="s">
+        <v>22</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -1689,10 +1239,57 @@
       <c r="O2" t="s">
         <v>25</v>
       </c>
-      <c r="P2">
-        <v>34</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11377</v>
+      </c>
+      <c r="B3">
+        <v>11377</v>
+      </c>
+      <c r="C3">
+        <v>11377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>59</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1702,6 +1299,196 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8718DD54-2741-4A68-8950-E5F34692E75E}">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="str">
+        <f>"0"&amp;316</f>
+        <v>0316</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11377</v>
+      </c>
+      <c r="B3">
+        <v>11377</v>
+      </c>
+      <c r="C3">
+        <v>11377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="str">
+        <f>"0"&amp;316</f>
+        <v>0316</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>59</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04EA279-8D72-42BF-A62F-F24DC5DD6715}">
   <dimension ref="A1:V2"/>
   <sheetViews>
@@ -1709,28 +1496,28 @@
       <selection activeCell="J1" sqref="J1:V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1798,7 +1585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11377</v>
       </c>
@@ -1871,7 +1658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1970537-3C0D-4B1C-B282-578DB1BA6295}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -1879,23 +1666,23 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1948,7 +1735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2007,7 +1794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858D018B-7C88-4952-80F9-648942F3CC51}">
   <dimension ref="A1:W2"/>
   <sheetViews>
@@ -2015,27 +1802,27 @@
       <selection sqref="A1:U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2106,7 +1893,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11377</v>
       </c>
@@ -2182,7 +1969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DB051C-C034-4D73-97FA-BEBE8E9EA08C}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -2190,22 +1977,22 @@
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2255,7 +2042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11377</v>
       </c>
@@ -2310,7 +2097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64935B7F-8999-44FA-A06A-05EB468DD0E7}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -2318,22 +2105,22 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2383,7 +2170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11377</v>
       </c>
@@ -2431,142 +2218,6 @@
       </c>
       <c r="P2" t="s">
         <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64195E5B-8F95-4294-9D13-F7FF6F145626}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.08984375" customWidth="1"/>
-    <col min="17" max="18" width="9.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>11377</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2">
-        <v>65</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2575,35 +2226,36 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A475D373-CE6A-4A53-8458-E7291611DAD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64195E5B-8F95-4294-9D13-F7FF6F145626}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2651,12 +2303,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>11377</v>
-      </c>
-      <c r="B2">
-        <v>11377</v>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
       </c>
       <c r="C2">
         <v>11377</v>
@@ -2695,7 +2347,7 @@
         <v>21</v>
       </c>
       <c r="O2">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="P2" t="s">
         <v>24</v>
@@ -2717,23 +2369,23 @@
       <selection sqref="A1:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2786,7 +2438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11377</v>
       </c>
@@ -2845,6 +2497,141 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A475D373-CE6A-4A53-8458-E7291611DAD3}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2">
+        <v>173</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4857B88B-AC0A-4EEA-8393-5AE17685CCF6}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
@@ -2852,24 +2639,24 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1796875" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7265625" customWidth="1"/>
-    <col min="17" max="17" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2922,7 +2709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16956</v>
       </c>
@@ -2975,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>16956</v>
       </c>
@@ -3033,7 +2820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9ECBA3E-2EB5-4280-97C6-AE6B82AA22B5}">
   <dimension ref="A1:V2"/>
   <sheetViews>
@@ -3041,28 +2828,28 @@
       <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3130,7 +2917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11377</v>
       </c>
@@ -3211,22 +2998,22 @@
       <selection sqref="A1:P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3276,7 +3063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11377</v>
       </c>
@@ -3326,7 +3113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11377</v>
       </c>
@@ -3376,7 +3163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11377</v>
       </c>
@@ -3435,27 +3222,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3E9EF-A87F-4EE0-BD3F-AEACF3F3762C}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3508,7 +3295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11377</v>
       </c>
@@ -3561,7 +3348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11377</v>
       </c>
@@ -3627,23 +3414,23 @@
       <selection sqref="A1:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3696,7 +3483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11377</v>
       </c>
@@ -3759,25 +3546,25 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:R4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3833,7 +3620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -3889,7 +3676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -3945,7 +3732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -4007,29 +3794,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55838455-B793-459B-B87F-42BC45E9C52F}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7EB7B2-8380-49FF-997B-C789FAAD50D3}">
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4079,7 +3853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11377</v>
       </c>
@@ -4090,10 +3864,10 @@
         <v>11377</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -4101,8 +3875,8 @@
       <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
-        <v>22</v>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -4114,7 +3888,7 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <v>59</v>
+        <v>234</v>
       </c>
       <c r="M2" t="s">
         <v>23</v>
@@ -4126,6 +3900,56 @@
         <v>25</v>
       </c>
       <c r="P2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11377</v>
+      </c>
+      <c r="B3">
+        <v>11377</v>
+      </c>
+      <c r="C3">
+        <v>11377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>2199</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>189</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4135,29 +3959,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4E1ED3-0D31-416C-90F1-02848B1B322D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55838455-B793-459B-B87F-42BC45E9C52F}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4207,7 +4031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11377</v>
       </c>
@@ -4218,13 +4042,13 @@
         <v>11377</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4257,7 +4081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11377</v>
       </c>
@@ -4268,10 +4092,10 @@
         <v>11377</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -4279,8 +4103,8 @@
       <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="H3">
-        <v>2199</v>
+      <c r="H3" t="s">
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
@@ -4289,10 +4113,10 @@
         <v>21</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>287</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s">
         <v>23</v>
@@ -4313,30 +4137,29 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077EDD78-85E4-4FE1-B4AE-C737151368FA}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4E1ED3-0D31-416C-90F1-02848B1B322D}">
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4380,16 +4203,13 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11377</v>
       </c>
@@ -4406,7 +4226,7 @@
         <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4432,18 +4252,64 @@
       <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="O2">
-        <v>155</v>
+      <c r="O2" t="s">
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11377</v>
+      </c>
+      <c r="B3">
+        <v>11377</v>
+      </c>
+      <c r="C3">
+        <v>11377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>2199</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>287</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>